--- a/data/trans_dic/P56$familiar-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2172268959943812</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5813918779517362</v>
+        <v>0.5813918779517363</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1904916700852288</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1022022155756628</v>
+        <v>0.09377659953608972</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1562293440469002</v>
+        <v>0.1581766774394177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1235703600523431</v>
+        <v>0.1351283019185449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4874426168149967</v>
+        <v>0.485361735132371</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1073848243357713</v>
+        <v>0.1140024900938452</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2380113486549763</v>
+        <v>0.2295581974262407</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2083110775105834</v>
+        <v>0.217035688525272</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5321992296243445</v>
+        <v>0.5392358796671902</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1286440022554501</v>
+        <v>0.125796061350451</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2282490759671476</v>
+        <v>0.2292263460348413</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2117336104864087</v>
+        <v>0.2098058692757404</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.538917354631569</v>
+        <v>0.5411850812733666</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3100867118862421</v>
+        <v>0.3099673125639773</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3713873971272818</v>
+        <v>0.3865859919084009</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3321318451504034</v>
+        <v>0.3472871019054549</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6687524936282594</v>
+        <v>0.6763277756436796</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2840836548389759</v>
+        <v>0.3003276009978685</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3658935287049295</v>
+        <v>0.3635319830057536</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3776430890119463</v>
+        <v>0.3845064702626484</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6347783816838665</v>
+        <v>0.632521023941703</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2637379322143205</v>
+        <v>0.2698526377047085</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3472241912197349</v>
+        <v>0.3413876577329641</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3479610653298592</v>
+        <v>0.3529095288241102</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6234605521248305</v>
+        <v>0.6273009616311381</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3487580178490721</v>
+        <v>0.3487580178490722</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1649486019749819</v>
@@ -821,7 +821,7 @@
         <v>0.04229667108943545</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4457871613312483</v>
+        <v>0.4457871613312482</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2570941250032945</v>
@@ -833,7 +833,7 @@
         <v>0.0293637557077537</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4095948853211843</v>
+        <v>0.4095948853211842</v>
       </c>
     </row>
     <row r="8">
@@ -851,31 +851,31 @@
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.2223080439614027</v>
+        <v>0.2192851325918729</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0800065042541927</v>
+        <v>0.08028737673488059</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3391115883725746</v>
+        <v>0.3410957905446004</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07160440767337151</v>
+        <v>0.07178827775704368</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09638849173200584</v>
+        <v>0.09637026688682146</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.320058806931245</v>
+        <v>0.326936056128791</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8084031801866747</v>
+        <v>1</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5534333996376186</v>
+        <v>0.5574586741454561</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.5013319354432284</v>
+        <v>0.5009857706993134</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6720861386828887</v>
+        <v>0.6623659965933294</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6251327688150541</v>
+        <v>0.5461641172084456</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.186394602744121</v>
+        <v>0.2151058371284066</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5444329593688932</v>
+        <v>0.5511418712712979</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.612534426255357</v>
+        <v>0.5782310836353264</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4903732395315485</v>
+        <v>0.4857068090663145</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1324811146839593</v>
+        <v>0.152525117115986</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4905067093698932</v>
+        <v>0.4943924626268941</v>
       </c>
     </row>
     <row r="10">
@@ -977,7 +977,7 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.07369562202191336</v>
+        <v>0.07548807834324193</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.08197007996935046</v>
+        <v>0.07993830467793432</v>
       </c>
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.1169008606920355</v>
+        <v>0.1340747978452666</v>
       </c>
     </row>
     <row r="12">
@@ -1007,7 +1007,7 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.6159184583656185</v>
+        <v>0.6129360446173705</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.5937465929432703</v>
+        <v>0.6004803371980859</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.4809859531763803</v>
+        <v>0.4852327215968789</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>0.228475806646137</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5377567260208327</v>
+        <v>0.5377567260208328</v>
       </c>
     </row>
     <row r="14">
@@ -1082,40 +1082,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1107962855167894</v>
+        <v>0.1172967034000163</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1543425693935445</v>
+        <v>0.1748232253608195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1051177534982046</v>
+        <v>0.09720228234616667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4205545944544977</v>
+        <v>0.4203828157089479</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1103325188058472</v>
+        <v>0.1032092125007251</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2287136307998524</v>
+        <v>0.227320091503448</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1862756040773259</v>
+        <v>0.1782671614827454</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5098942388331174</v>
+        <v>0.5037437245876635</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1340903685962622</v>
+        <v>0.1277663974719012</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2297552719124358</v>
+        <v>0.2325638258944183</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1726767102243293</v>
+        <v>0.1730634157465337</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5000062023098554</v>
+        <v>0.5015754661914897</v>
       </c>
     </row>
     <row r="15">
@@ -1126,40 +1126,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3264269189583214</v>
+        <v>0.3344528014569528</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3693727612120711</v>
+        <v>0.3818927642927004</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2779325963692897</v>
+        <v>0.2639542840429796</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5870806147930565</v>
+        <v>0.5702378975195885</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2746645784691273</v>
+        <v>0.2737409364154137</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3591696814682204</v>
+        <v>0.3559076335231551</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3298738081073748</v>
+        <v>0.3250293695501716</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5977949924936266</v>
+        <v>0.5937487215954328</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2673578747492812</v>
+        <v>0.2639120786424853</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3379079807027595</v>
+        <v>0.3405858354585333</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2872413927789017</v>
+        <v>0.2936768993529574</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5790965693715514</v>
+        <v>0.5777963623211999</v>
       </c>
     </row>
     <row r="16">
@@ -1429,40 +1429,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4511</v>
+        <v>4139</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10685</v>
+        <v>10818</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7005</v>
+        <v>7660</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>35217</v>
+        <v>35066</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8958</v>
+        <v>9510</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>44258</v>
+        <v>42686</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>29733</v>
+        <v>30978</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>115577</v>
+        <v>117105</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16409</v>
+        <v>16045</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>58053</v>
+        <v>58302</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>42225</v>
+        <v>41840</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>155972</v>
+        <v>156628</v>
       </c>
     </row>
     <row r="7">
@@ -1473,40 +1473,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13686</v>
+        <v>13680</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25400</v>
+        <v>26440</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18828</v>
+        <v>19687</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>48316</v>
+        <v>48863</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23697</v>
+        <v>25052</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>68038</v>
+        <v>67598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>53903</v>
+        <v>54882</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>137854</v>
+        <v>137364</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33640</v>
+        <v>34420</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>88314</v>
+        <v>86829</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>69391</v>
+        <v>70378</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>180440</v>
+        <v>181552</v>
       </c>
     </row>
     <row r="8">
@@ -1616,22 +1616,22 @@
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>6356</v>
+        <v>6270</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16298</v>
+        <v>16394</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>2013</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>24534</v>
+        <v>25061</v>
       </c>
     </row>
     <row r="11">
@@ -1651,38 +1651,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3352</v>
+        <v>4146</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5051</v>
+        <v>5087</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>14335</v>
+        <v>14325</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4549</v>
+        <v>4484</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7353</v>
+        <v>6425</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>4731</v>
+        <v>5460</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>26167</v>
+        <v>26489</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6685</v>
+        <v>6311</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>10243</v>
+        <v>10146</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>4844</v>
+        <v>5577</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>37600</v>
+        <v>37898</v>
       </c>
     </row>
     <row r="12">
@@ -1786,7 +1786,7 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>1790</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="15">
@@ -1816,7 +1816,7 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4403</v>
+        <v>4381</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4850</v>
+        <v>4905</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="n">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>7366</v>
+        <v>7431</v>
       </c>
     </row>
     <row r="16">
@@ -1935,40 +1935,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5349</v>
+        <v>5663</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12117</v>
+        <v>13724</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7579</v>
+        <v>7008</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>45415</v>
+        <v>45397</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10321</v>
+        <v>9655</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>46231</v>
+        <v>45949</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32000</v>
+        <v>30624</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>139405</v>
+        <v>137723</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>19017</v>
+        <v>18120</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>64479</v>
+        <v>65267</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>42113</v>
+        <v>42208</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>190696</v>
+        <v>191295</v>
       </c>
     </row>
     <row r="19">
@@ -1979,40 +1979,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15760</v>
+        <v>16148</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28998</v>
+        <v>29980</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20038</v>
+        <v>19030</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>63398</v>
+        <v>61579</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>25693</v>
+        <v>25607</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>72601</v>
+        <v>71941</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>56668</v>
+        <v>55836</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>163437</v>
+        <v>162330</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>37918</v>
+        <v>37429</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>94830</v>
+        <v>95582</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>70054</v>
+        <v>71623</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>220860</v>
+        <v>220365</v>
       </c>
     </row>
     <row r="20">
